--- a/Person_B_and_trucks/on_trucks/Processed_Stand_Alone/35_11R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Stand_Alone/35_11R22.xlsx
@@ -19,19 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="60">
-  <si>
-    <t>Signal_Value_85</t>
-  </si>
-  <si>
-    <t>Signal_Value_86</t>
-  </si>
-  <si>
-    <t>Signal_Value_87</t>
-  </si>
-  <si>
-    <t>Signal_Value_88</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="56">
   <si>
     <t>Signal_Value_89</t>
   </si>
@@ -556,15 +544,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM6"/>
+  <dimension ref="A1:AI6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -668,499 +656,439 @@
       <c r="AI1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:35">
+      <c r="A2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0.1096133196531939</v>
+      </c>
+      <c r="E2">
+        <v>0.001402485775162276</v>
+      </c>
+      <c r="F2">
+        <v>0.1558910477255196</v>
+      </c>
+      <c r="G2">
+        <v>0.1368642050114163</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0.05461580647223169</v>
+      </c>
+      <c r="K2">
+        <v>0.02502881853864006</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0.01334220126336626</v>
+      </c>
+      <c r="N2">
+        <v>0.07432731003485173</v>
+      </c>
+      <c r="O2">
+        <v>0.03034197693057061</v>
+      </c>
+      <c r="P2">
+        <v>0.01043884223626893</v>
+      </c>
+      <c r="Q2">
+        <v>0.1197167922768436</v>
+      </c>
+      <c r="R2">
+        <v>0.169682568140642</v>
+      </c>
+      <c r="S2">
+        <v>0.00672744619502426</v>
+      </c>
+      <c r="T2">
+        <v>0.006773399911596751</v>
+      </c>
+      <c r="U2">
+        <v>0.007437454763093642</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0.0241519536444644</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0.006814859404474677</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0.03927932039292939</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0.007550191629709628</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35">
+      <c r="A3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0.2442066912959785</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0.1082763235207811</v>
+      </c>
+      <c r="G3">
+        <v>0.1326500598376161</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0.01745531610016416</v>
+      </c>
+      <c r="K3">
+        <v>0.02396814262748528</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0.07975493517937483</v>
+      </c>
+      <c r="N3">
+        <v>0.07428846293093862</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0.1410526868527557</v>
+      </c>
+      <c r="R3">
+        <v>0.1200617314232485</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0.03611172918170841</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0.008708383947152747</v>
+      </c>
+      <c r="X3">
+        <v>0.009829201756780081</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0.003636335346015959</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35">
+      <c r="A4" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:39">
-      <c r="A2" s="1" t="s">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0.1358558260489801</v>
+      </c>
+      <c r="E4">
+        <v>0.06520687165297502</v>
+      </c>
+      <c r="F4">
+        <v>0.09963408879141518</v>
+      </c>
+      <c r="G4">
+        <v>0.1632383680455815</v>
+      </c>
+      <c r="H4">
+        <v>0.02838328937973721</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0.02110348126978365</v>
+      </c>
+      <c r="K4">
+        <v>0.05471004714607531</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0.02150856033051327</v>
+      </c>
+      <c r="N4">
+        <v>0.0901940973070605</v>
+      </c>
+      <c r="O4">
+        <v>0.006053196451256983</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0.07180785548092633</v>
+      </c>
+      <c r="R4">
+        <v>0.1682029150149209</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0.03548666558211989</v>
+      </c>
+      <c r="U4">
+        <v>0.01222548852120467</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0.009943410437882038</v>
+      </c>
+      <c r="X4">
+        <v>0.007419080382715398</v>
+      </c>
+      <c r="Y4">
+        <v>0.009026758156851973</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35">
+      <c r="A5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0.03344966703277095</v>
+      </c>
+      <c r="E5">
+        <v>0.2099703393998677</v>
+      </c>
+      <c r="F5">
+        <v>0.02837164782586614</v>
+      </c>
+      <c r="G5">
+        <v>0.1798646454085534</v>
+      </c>
+      <c r="H5">
+        <v>0.04338377847339114</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0.01168493606531531</v>
+      </c>
+      <c r="K5">
+        <v>0.08769804602787643</v>
+      </c>
+      <c r="L5">
+        <v>0.01142420244045721</v>
+      </c>
+      <c r="M5">
+        <v>0.008687033824535126</v>
+      </c>
+      <c r="N5">
+        <v>0.06902235908323084</v>
+      </c>
+      <c r="O5">
+        <v>0.000525915351698245</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0.0385152401472473</v>
+      </c>
+      <c r="R5">
+        <v>0.1643026166521603</v>
+      </c>
+      <c r="S5">
+        <v>0.007391138097370562</v>
+      </c>
+      <c r="T5">
+        <v>0.03102052503356108</v>
+      </c>
+      <c r="U5">
+        <v>0.02153552831445386</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0.009603088900698675</v>
+      </c>
+      <c r="X5">
+        <v>0.02949793146607036</v>
+      </c>
+      <c r="Y5">
+        <v>0.00840952996062734</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0.005641830494247992</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35">
+      <c r="A6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0.128366961095535</v>
-      </c>
-      <c r="I2">
-        <v>0.01736470812212444</v>
-      </c>
-      <c r="J2">
-        <v>0.03132822860068542</v>
-      </c>
-      <c r="K2">
-        <v>0.02575402057932749</v>
-      </c>
-      <c r="L2">
-        <v>0.135364571779992</v>
-      </c>
-      <c r="M2">
-        <v>0.07684514332758995</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0.09289262694246307</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0.02838097866819084</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0.1777570102978007</v>
-      </c>
-      <c r="T2">
-        <v>0.1834088445830651</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0.01790393341961749</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0.02392281281466479</v>
-      </c>
-      <c r="Z2">
-        <v>0.03941813262610791</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>0.01240181408660274</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>0.003692627310854004</v>
-      </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2">
-        <v>0.005197585745379003</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-      <c r="AK2">
-        <v>0</v>
-      </c>
-      <c r="AL2">
-        <v>0</v>
-      </c>
-      <c r="AM2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:39">
-      <c r="A3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0.3886058366686349</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0.09626332128338566</v>
-      </c>
-      <c r="K3">
-        <v>0.08342521051509075</v>
-      </c>
-      <c r="L3">
-        <v>0.03035090546199613</v>
-      </c>
-      <c r="M3">
-        <v>0.003325010665583751</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0.03942021251599685</v>
-      </c>
-      <c r="S3">
-        <v>0.1225657211041282</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0.001006851822022903</v>
-      </c>
-      <c r="V3">
-        <v>0.07312707348396712</v>
-      </c>
-      <c r="W3">
-        <v>0.002510612679063486</v>
-      </c>
-      <c r="X3">
-        <v>0.01780294296885688</v>
-      </c>
-      <c r="Y3">
-        <v>0.03592382636670458</v>
-      </c>
-      <c r="Z3">
-        <v>0.02291171644436973</v>
-      </c>
-      <c r="AA3">
-        <v>0.006125798212298019</v>
-      </c>
-      <c r="AB3">
-        <v>0.005487330317467433</v>
-      </c>
-      <c r="AC3">
-        <v>0.02669830386291756</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <v>0.008174429900630787</v>
-      </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <v>0.03524918637279549</v>
-      </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
-      <c r="AK3">
-        <v>0</v>
-      </c>
-      <c r="AL3">
-        <v>0.001025709354089844</v>
-      </c>
-      <c r="AM3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39">
-      <c r="A4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0.01790854677863318</v>
-      </c>
-      <c r="H4">
-        <v>0.1945614784703233</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0.1990393465220526</v>
-      </c>
-      <c r="K4">
-        <v>0.1069294670015149</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0.002052300980319676</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0.06597644221998542</v>
-      </c>
-      <c r="R4">
-        <v>0.02340140227032999</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0.05916150934487948</v>
-      </c>
-      <c r="U4">
-        <v>0.1975739609801598</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0.04794020350689343</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>0.06078255370803198</v>
-      </c>
-      <c r="AA4">
-        <v>0.02467278821687625</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
-      <c r="AK4">
-        <v>0</v>
-      </c>
-      <c r="AL4">
-        <v>0</v>
-      </c>
-      <c r="AM4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39">
-      <c r="A5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0.277331516974568</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0.1300069097627094</v>
-      </c>
-      <c r="K5">
-        <v>0.03592082458859371</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0.05666707975357218</v>
-      </c>
-      <c r="S5">
-        <v>0.1074855712222533</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0.02792870762327553</v>
-      </c>
-      <c r="W5">
-        <v>0.03493119311548932</v>
-      </c>
-      <c r="X5">
-        <v>0.003399280695184361</v>
-      </c>
-      <c r="Y5">
-        <v>0.07544604320589668</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0.009875756410654579</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>0.07389137433169543</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <v>0.07190772712122924</v>
-      </c>
-      <c r="AF5">
-        <v>0.01850827847178638</v>
-      </c>
-      <c r="AG5">
-        <v>0.07669973672309192</v>
-      </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
-      <c r="AK5">
-        <v>0</v>
-      </c>
-      <c r="AL5">
-        <v>0</v>
-      </c>
-      <c r="AM5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="A6" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="B6">
         <v>0</v>
       </c>
@@ -1168,91 +1096,91 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.05421744278880267</v>
+        <v>0.230669321296255</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.06306857811252531</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.06852800885375566</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.1185577102089635</v>
       </c>
       <c r="H6">
-        <v>0.03200130279132225</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.121585214943277</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.01141494757828295</v>
+        <v>0.01640562928572928</v>
       </c>
       <c r="K6">
-        <v>0.03631752347258326</v>
+        <v>0.02450670388046144</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.06382694055814168</v>
+        <v>0.03681623489465801</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.07805908469228297</v>
       </c>
       <c r="O6">
-        <v>0.2398747908216323</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.09517020443405366</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.07205424458002745</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>0.15403567616904</v>
       </c>
       <c r="S6">
-        <v>0.04578534715771936</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>0.05323055470394629</v>
       </c>
       <c r="U6">
-        <v>0.07441179201443614</v>
+        <v>0.01191041513732167</v>
       </c>
       <c r="V6">
-        <v>0.1040185658001265</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>0.02629146534781935</v>
       </c>
       <c r="X6">
-        <v>0.01976460910958036</v>
+        <v>0.02270401398128271</v>
       </c>
       <c r="Y6">
-        <v>0.02195530373332243</v>
+        <v>0.01372068509132533</v>
       </c>
       <c r="Z6">
-        <v>0.05514902763775495</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.01085558920781953</v>
+        <v>0</v>
       </c>
       <c r="AB6">
         <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.005128120159215984</v>
+        <v>0.009147936910197111</v>
       </c>
       <c r="AD6">
-        <v>0.008523277791929108</v>
+        <v>0</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>0.0002937368544089745</v>
       </c>
       <c r="AG6">
         <v>0</v>
@@ -1261,18 +1189,6 @@
         <v>0</v>
       </c>
       <c r="AI6">
-        <v>0</v>
-      </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
-      <c r="AK6">
-        <v>0</v>
-      </c>
-      <c r="AL6">
-        <v>0</v>
-      </c>
-      <c r="AM6">
         <v>0</v>
       </c>
     </row>
@@ -1283,15 +1199,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM6"/>
+  <dimension ref="A1:AI6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1395,612 +1311,540 @@
       <c r="AI1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:35">
+      <c r="A2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0.1096133196531939</v>
+      </c>
+      <c r="E2">
+        <v>0.1110158054283562</v>
+      </c>
+      <c r="F2">
+        <v>0.2669068531538759</v>
+      </c>
+      <c r="G2">
+        <v>0.4037710581652922</v>
+      </c>
+      <c r="H2">
+        <v>0.4037710581652922</v>
+      </c>
+      <c r="I2">
+        <v>0.4037710581652922</v>
+      </c>
+      <c r="J2">
+        <v>0.4583868646375239</v>
+      </c>
+      <c r="K2">
+        <v>0.4834156831761639</v>
+      </c>
+      <c r="L2">
+        <v>0.4834156831761639</v>
+      </c>
+      <c r="M2">
+        <v>0.4967578844395302</v>
+      </c>
+      <c r="N2">
+        <v>0.5710851944743819</v>
+      </c>
+      <c r="O2">
+        <v>0.6014271714049525</v>
+      </c>
+      <c r="P2">
+        <v>0.6118660136412214</v>
+      </c>
+      <c r="Q2">
+        <v>0.731582805918065</v>
+      </c>
+      <c r="R2">
+        <v>0.901265374058707</v>
+      </c>
+      <c r="S2">
+        <v>0.9079928202537313</v>
+      </c>
+      <c r="T2">
+        <v>0.914766220165328</v>
+      </c>
+      <c r="U2">
+        <v>0.9222036749284217</v>
+      </c>
+      <c r="V2">
+        <v>0.9222036749284217</v>
+      </c>
+      <c r="W2">
+        <v>0.9222036749284217</v>
+      </c>
+      <c r="X2">
+        <v>0.9222036749284217</v>
+      </c>
+      <c r="Y2">
+        <v>0.9463556285728861</v>
+      </c>
+      <c r="Z2">
+        <v>0.9463556285728861</v>
+      </c>
+      <c r="AA2">
+        <v>0.9531704879773608</v>
+      </c>
+      <c r="AB2">
+        <v>0.9531704879773608</v>
+      </c>
+      <c r="AC2">
+        <v>0.9924498083702902</v>
+      </c>
+      <c r="AD2">
+        <v>0.9924498083702902</v>
+      </c>
+      <c r="AE2">
+        <v>0.9924498083702902</v>
+      </c>
+      <c r="AF2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AG2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AH2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AI2">
+        <v>0.9999999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35">
+      <c r="A3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0.2442066912959785</v>
+      </c>
+      <c r="E3">
+        <v>0.2442066912959785</v>
+      </c>
+      <c r="F3">
+        <v>0.3524830148167596</v>
+      </c>
+      <c r="G3">
+        <v>0.4851330746543757</v>
+      </c>
+      <c r="H3">
+        <v>0.4851330746543757</v>
+      </c>
+      <c r="I3">
+        <v>0.4851330746543757</v>
+      </c>
+      <c r="J3">
+        <v>0.5025883907545399</v>
+      </c>
+      <c r="K3">
+        <v>0.5265565333820251</v>
+      </c>
+      <c r="L3">
+        <v>0.5265565333820251</v>
+      </c>
+      <c r="M3">
+        <v>0.6063114685613999</v>
+      </c>
+      <c r="N3">
+        <v>0.6805999314923386</v>
+      </c>
+      <c r="O3">
+        <v>0.6805999314923386</v>
+      </c>
+      <c r="P3">
+        <v>0.6805999314923386</v>
+      </c>
+      <c r="Q3">
+        <v>0.8216526183450943</v>
+      </c>
+      <c r="R3">
+        <v>0.9417143497683428</v>
+      </c>
+      <c r="S3">
+        <v>0.9417143497683428</v>
+      </c>
+      <c r="T3">
+        <v>0.9778260789500512</v>
+      </c>
+      <c r="U3">
+        <v>0.9778260789500512</v>
+      </c>
+      <c r="V3">
+        <v>0.9778260789500512</v>
+      </c>
+      <c r="W3">
+        <v>0.986534462897204</v>
+      </c>
+      <c r="X3">
+        <v>0.9963636646539841</v>
+      </c>
+      <c r="Y3">
+        <v>0.9963636646539841</v>
+      </c>
+      <c r="Z3">
+        <v>0.9963636646539841</v>
+      </c>
+      <c r="AA3">
+        <v>0.9963636646539841</v>
+      </c>
+      <c r="AB3">
+        <v>1</v>
+      </c>
+      <c r="AC3">
+        <v>1</v>
+      </c>
+      <c r="AD3">
+        <v>1</v>
+      </c>
+      <c r="AE3">
+        <v>1</v>
+      </c>
+      <c r="AF3">
+        <v>1</v>
+      </c>
+      <c r="AG3">
+        <v>1</v>
+      </c>
+      <c r="AH3">
+        <v>1</v>
+      </c>
+      <c r="AI3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35">
+      <c r="A4" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:39">
-      <c r="A2" s="1" t="s">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0.1358558260489801</v>
+      </c>
+      <c r="E4">
+        <v>0.2010626977019551</v>
+      </c>
+      <c r="F4">
+        <v>0.3006967864933702</v>
+      </c>
+      <c r="G4">
+        <v>0.4639351545389517</v>
+      </c>
+      <c r="H4">
+        <v>0.4923184439186889</v>
+      </c>
+      <c r="I4">
+        <v>0.4923184439186889</v>
+      </c>
+      <c r="J4">
+        <v>0.5134219251884725</v>
+      </c>
+      <c r="K4">
+        <v>0.5681319723345478</v>
+      </c>
+      <c r="L4">
+        <v>0.5681319723345478</v>
+      </c>
+      <c r="M4">
+        <v>0.5896405326650611</v>
+      </c>
+      <c r="N4">
+        <v>0.6798346299721216</v>
+      </c>
+      <c r="O4">
+        <v>0.6858878264233786</v>
+      </c>
+      <c r="P4">
+        <v>0.6858878264233786</v>
+      </c>
+      <c r="Q4">
+        <v>0.757695681904305</v>
+      </c>
+      <c r="R4">
+        <v>0.9258985969192259</v>
+      </c>
+      <c r="S4">
+        <v>0.9258985969192259</v>
+      </c>
+      <c r="T4">
+        <v>0.9613852625013458</v>
+      </c>
+      <c r="U4">
+        <v>0.9736107510225505</v>
+      </c>
+      <c r="V4">
+        <v>0.9736107510225505</v>
+      </c>
+      <c r="W4">
+        <v>0.9835541614604325</v>
+      </c>
+      <c r="X4">
+        <v>0.9909732418431479</v>
+      </c>
+      <c r="Y4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="Z4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AA4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AB4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AC4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AD4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AE4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AF4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AG4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AH4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AI4">
+        <v>0.9999999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35">
+      <c r="A5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0.03344966703277095</v>
+      </c>
+      <c r="E5">
+        <v>0.2434200064326387</v>
+      </c>
+      <c r="F5">
+        <v>0.2717916542585048</v>
+      </c>
+      <c r="G5">
+        <v>0.4516562996670582</v>
+      </c>
+      <c r="H5">
+        <v>0.4950400781404494</v>
+      </c>
+      <c r="I5">
+        <v>0.4950400781404494</v>
+      </c>
+      <c r="J5">
+        <v>0.5067250142057647</v>
+      </c>
+      <c r="K5">
+        <v>0.5944230602336411</v>
+      </c>
+      <c r="L5">
+        <v>0.6058472626740983</v>
+      </c>
+      <c r="M5">
+        <v>0.6145342964986334</v>
+      </c>
+      <c r="N5">
+        <v>0.6835566555818643</v>
+      </c>
+      <c r="O5">
+        <v>0.6840825709335625</v>
+      </c>
+      <c r="P5">
+        <v>0.6840825709335625</v>
+      </c>
+      <c r="Q5">
+        <v>0.7225978110808098</v>
+      </c>
+      <c r="R5">
+        <v>0.8869004277329702</v>
+      </c>
+      <c r="S5">
+        <v>0.8942915658303408</v>
+      </c>
+      <c r="T5">
+        <v>0.9253120908639019</v>
+      </c>
+      <c r="U5">
+        <v>0.9468476191783557</v>
+      </c>
+      <c r="V5">
+        <v>0.9468476191783557</v>
+      </c>
+      <c r="W5">
+        <v>0.9564507080790544</v>
+      </c>
+      <c r="X5">
+        <v>0.9859486395451248</v>
+      </c>
+      <c r="Y5">
+        <v>0.9943581695057522</v>
+      </c>
+      <c r="Z5">
+        <v>0.9943581695057522</v>
+      </c>
+      <c r="AA5">
+        <v>0.9943581695057522</v>
+      </c>
+      <c r="AB5">
+        <v>0.9943581695057522</v>
+      </c>
+      <c r="AC5">
+        <v>1</v>
+      </c>
+      <c r="AD5">
+        <v>1</v>
+      </c>
+      <c r="AE5">
+        <v>1</v>
+      </c>
+      <c r="AF5">
+        <v>1</v>
+      </c>
+      <c r="AG5">
+        <v>1</v>
+      </c>
+      <c r="AH5">
+        <v>1</v>
+      </c>
+      <c r="AI5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35">
+      <c r="A6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0.128366961095535</v>
-      </c>
-      <c r="I2">
-        <v>0.1457316692176595</v>
-      </c>
-      <c r="J2">
-        <v>0.1770598978183449</v>
-      </c>
-      <c r="K2">
-        <v>0.2028139183976723</v>
-      </c>
-      <c r="L2">
-        <v>0.3381784901776643</v>
-      </c>
-      <c r="M2">
-        <v>0.4150236335052543</v>
-      </c>
-      <c r="N2">
-        <v>0.4150236335052543</v>
-      </c>
-      <c r="O2">
-        <v>0.5079162604477173</v>
-      </c>
-      <c r="P2">
-        <v>0.5079162604477173</v>
-      </c>
-      <c r="Q2">
-        <v>0.5362972391159082</v>
-      </c>
-      <c r="R2">
-        <v>0.5362972391159082</v>
-      </c>
-      <c r="S2">
-        <v>0.7140542494137089</v>
-      </c>
-      <c r="T2">
-        <v>0.8974630939967739</v>
-      </c>
-      <c r="U2">
-        <v>0.8974630939967739</v>
-      </c>
-      <c r="V2">
-        <v>0.8974630939967739</v>
-      </c>
-      <c r="W2">
-        <v>0.9153670274163914</v>
-      </c>
-      <c r="X2">
-        <v>0.9153670274163914</v>
-      </c>
-      <c r="Y2">
-        <v>0.9392898402310562</v>
-      </c>
-      <c r="Z2">
-        <v>0.9787079728571642</v>
-      </c>
-      <c r="AA2">
-        <v>0.9787079728571642</v>
-      </c>
-      <c r="AB2">
-        <v>0.9787079728571642</v>
-      </c>
-      <c r="AC2">
-        <v>0.9911097869437669</v>
-      </c>
-      <c r="AD2">
-        <v>0.9911097869437669</v>
-      </c>
-      <c r="AE2">
-        <v>0.9948024142546209</v>
-      </c>
-      <c r="AF2">
-        <v>0.9948024142546209</v>
-      </c>
-      <c r="AG2">
-        <v>0.9948024142546209</v>
-      </c>
-      <c r="AH2">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0.230669321296255</v>
+      </c>
+      <c r="E6">
+        <v>0.2937378994087803</v>
+      </c>
+      <c r="F6">
+        <v>0.3622659082625359</v>
+      </c>
+      <c r="G6">
+        <v>0.4808236184714993</v>
+      </c>
+      <c r="H6">
+        <v>0.4808236184714993</v>
+      </c>
+      <c r="I6">
+        <v>0.4808236184714993</v>
+      </c>
+      <c r="J6">
+        <v>0.4972292477572287</v>
+      </c>
+      <c r="K6">
+        <v>0.52173595163769</v>
+      </c>
+      <c r="L6">
+        <v>0.52173595163769</v>
+      </c>
+      <c r="M6">
+        <v>0.5585521865323481</v>
+      </c>
+      <c r="N6">
+        <v>0.636611271224631</v>
+      </c>
+      <c r="O6">
+        <v>0.636611271224631</v>
+      </c>
+      <c r="P6">
+        <v>0.636611271224631</v>
+      </c>
+      <c r="Q6">
+        <v>0.7086655158046584</v>
+      </c>
+      <c r="R6">
+        <v>0.8627011919736984</v>
+      </c>
+      <c r="S6">
+        <v>0.8627011919736984</v>
+      </c>
+      <c r="T6">
+        <v>0.9159317466776448</v>
+      </c>
+      <c r="U6">
+        <v>0.9278421618149665</v>
+      </c>
+      <c r="V6">
+        <v>0.9278421618149665</v>
+      </c>
+      <c r="W6">
+        <v>0.9541336271627858</v>
+      </c>
+      <c r="X6">
+        <v>0.9768376411440686</v>
+      </c>
+      <c r="Y6">
+        <v>0.9905583262353939</v>
+      </c>
+      <c r="Z6">
+        <v>0.9905583262353939</v>
+      </c>
+      <c r="AA6">
+        <v>0.9905583262353939</v>
+      </c>
+      <c r="AB6">
+        <v>0.9905583262353939</v>
+      </c>
+      <c r="AC6">
+        <v>0.999706263145591</v>
+      </c>
+      <c r="AD6">
+        <v>0.999706263145591</v>
+      </c>
+      <c r="AE6">
+        <v>0.999706263145591</v>
+      </c>
+      <c r="AF6">
         <v>0.9999999999999999</v>
       </c>
-      <c r="AI2">
+      <c r="AG6">
         <v>0.9999999999999999</v>
       </c>
-      <c r="AJ2">
+      <c r="AH6">
         <v>0.9999999999999999</v>
       </c>
-      <c r="AK2">
+      <c r="AI6">
         <v>0.9999999999999999</v>
-      </c>
-      <c r="AL2">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AM2">
-        <v>0.9999999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:39">
-      <c r="A3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0.3886058366686349</v>
-      </c>
-      <c r="I3">
-        <v>0.3886058366686349</v>
-      </c>
-      <c r="J3">
-        <v>0.4848691579520205</v>
-      </c>
-      <c r="K3">
-        <v>0.5682943684671112</v>
-      </c>
-      <c r="L3">
-        <v>0.5986452739291074</v>
-      </c>
-      <c r="M3">
-        <v>0.6019702845946912</v>
-      </c>
-      <c r="N3">
-        <v>0.6019702845946912</v>
-      </c>
-      <c r="O3">
-        <v>0.6019702845946912</v>
-      </c>
-      <c r="P3">
-        <v>0.6019702845946912</v>
-      </c>
-      <c r="Q3">
-        <v>0.6019702845946912</v>
-      </c>
-      <c r="R3">
-        <v>0.641390497110688</v>
-      </c>
-      <c r="S3">
-        <v>0.7639562182148162</v>
-      </c>
-      <c r="T3">
-        <v>0.7639562182148162</v>
-      </c>
-      <c r="U3">
-        <v>0.7649630700368391</v>
-      </c>
-      <c r="V3">
-        <v>0.8380901435208061</v>
-      </c>
-      <c r="W3">
-        <v>0.8406007561998696</v>
-      </c>
-      <c r="X3">
-        <v>0.8584036991687265</v>
-      </c>
-      <c r="Y3">
-        <v>0.894327525535431</v>
-      </c>
-      <c r="Z3">
-        <v>0.9172392419798008</v>
-      </c>
-      <c r="AA3">
-        <v>0.9233650401920988</v>
-      </c>
-      <c r="AB3">
-        <v>0.9288523705095661</v>
-      </c>
-      <c r="AC3">
-        <v>0.9555506743724838</v>
-      </c>
-      <c r="AD3">
-        <v>0.9555506743724838</v>
-      </c>
-      <c r="AE3">
-        <v>0.9637251042731145</v>
-      </c>
-      <c r="AF3">
-        <v>0.9637251042731145</v>
-      </c>
-      <c r="AG3">
-        <v>0.99897429064591</v>
-      </c>
-      <c r="AH3">
-        <v>0.99897429064591</v>
-      </c>
-      <c r="AI3">
-        <v>0.99897429064591</v>
-      </c>
-      <c r="AJ3">
-        <v>0.99897429064591</v>
-      </c>
-      <c r="AK3">
-        <v>0.99897429064591</v>
-      </c>
-      <c r="AL3">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AM3">
-        <v>0.9999999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39">
-      <c r="A4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0.01790854677863318</v>
-      </c>
-      <c r="H4">
-        <v>0.2124700252489565</v>
-      </c>
-      <c r="I4">
-        <v>0.2124700252489565</v>
-      </c>
-      <c r="J4">
-        <v>0.4115093717710091</v>
-      </c>
-      <c r="K4">
-        <v>0.5184388387725241</v>
-      </c>
-      <c r="L4">
-        <v>0.5184388387725241</v>
-      </c>
-      <c r="M4">
-        <v>0.5204911397528438</v>
-      </c>
-      <c r="N4">
-        <v>0.5204911397528438</v>
-      </c>
-      <c r="O4">
-        <v>0.5204911397528438</v>
-      </c>
-      <c r="P4">
-        <v>0.5204911397528438</v>
-      </c>
-      <c r="Q4">
-        <v>0.5864675819728292</v>
-      </c>
-      <c r="R4">
-        <v>0.6098689842431592</v>
-      </c>
-      <c r="S4">
-        <v>0.6098689842431592</v>
-      </c>
-      <c r="T4">
-        <v>0.6690304935880387</v>
-      </c>
-      <c r="U4">
-        <v>0.8666044545681985</v>
-      </c>
-      <c r="V4">
-        <v>0.8666044545681985</v>
-      </c>
-      <c r="W4">
-        <v>0.9145446580750919</v>
-      </c>
-      <c r="X4">
-        <v>0.9145446580750919</v>
-      </c>
-      <c r="Y4">
-        <v>0.9145446580750919</v>
-      </c>
-      <c r="Z4">
-        <v>0.9753272117831239</v>
-      </c>
-      <c r="AA4">
-        <v>1</v>
-      </c>
-      <c r="AB4">
-        <v>1</v>
-      </c>
-      <c r="AC4">
-        <v>1</v>
-      </c>
-      <c r="AD4">
-        <v>1</v>
-      </c>
-      <c r="AE4">
-        <v>1</v>
-      </c>
-      <c r="AF4">
-        <v>1</v>
-      </c>
-      <c r="AG4">
-        <v>1</v>
-      </c>
-      <c r="AH4">
-        <v>1</v>
-      </c>
-      <c r="AI4">
-        <v>1</v>
-      </c>
-      <c r="AJ4">
-        <v>1</v>
-      </c>
-      <c r="AK4">
-        <v>1</v>
-      </c>
-      <c r="AL4">
-        <v>1</v>
-      </c>
-      <c r="AM4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39">
-      <c r="A5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0.277331516974568</v>
-      </c>
-      <c r="I5">
-        <v>0.277331516974568</v>
-      </c>
-      <c r="J5">
-        <v>0.4073384267372774</v>
-      </c>
-      <c r="K5">
-        <v>0.4432592513258711</v>
-      </c>
-      <c r="L5">
-        <v>0.4432592513258711</v>
-      </c>
-      <c r="M5">
-        <v>0.4432592513258711</v>
-      </c>
-      <c r="N5">
-        <v>0.4432592513258711</v>
-      </c>
-      <c r="O5">
-        <v>0.4432592513258711</v>
-      </c>
-      <c r="P5">
-        <v>0.4432592513258711</v>
-      </c>
-      <c r="Q5">
-        <v>0.4432592513258711</v>
-      </c>
-      <c r="R5">
-        <v>0.4999263310794432</v>
-      </c>
-      <c r="S5">
-        <v>0.6074119023016965</v>
-      </c>
-      <c r="T5">
-        <v>0.6074119023016965</v>
-      </c>
-      <c r="U5">
-        <v>0.6074119023016965</v>
-      </c>
-      <c r="V5">
-        <v>0.635340609924972</v>
-      </c>
-      <c r="W5">
-        <v>0.6702718030404613</v>
-      </c>
-      <c r="X5">
-        <v>0.6736710837356457</v>
-      </c>
-      <c r="Y5">
-        <v>0.7491171269415423</v>
-      </c>
-      <c r="Z5">
-        <v>0.7491171269415423</v>
-      </c>
-      <c r="AA5">
-        <v>0.7589928833521968</v>
-      </c>
-      <c r="AB5">
-        <v>0.7589928833521968</v>
-      </c>
-      <c r="AC5">
-        <v>0.8328842576838923</v>
-      </c>
-      <c r="AD5">
-        <v>0.8328842576838923</v>
-      </c>
-      <c r="AE5">
-        <v>0.9047919848051216</v>
-      </c>
-      <c r="AF5">
-        <v>0.923300263276908</v>
-      </c>
-      <c r="AG5">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AH5">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AI5">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AJ5">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AK5">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AL5">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AM5">
-        <v>0.9999999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="A6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0.05421744278880267</v>
-      </c>
-      <c r="E6">
-        <v>0.05421744278880267</v>
-      </c>
-      <c r="F6">
-        <v>0.05421744278880267</v>
-      </c>
-      <c r="G6">
-        <v>0.05421744278880267</v>
-      </c>
-      <c r="H6">
-        <v>0.08621874558012492</v>
-      </c>
-      <c r="I6">
-        <v>0.2078039605234019</v>
-      </c>
-      <c r="J6">
-        <v>0.2192189081016848</v>
-      </c>
-      <c r="K6">
-        <v>0.2555364315742681</v>
-      </c>
-      <c r="L6">
-        <v>0.2555364315742681</v>
-      </c>
-      <c r="M6">
-        <v>0.3193633721324098</v>
-      </c>
-      <c r="N6">
-        <v>0.3193633721324098</v>
-      </c>
-      <c r="O6">
-        <v>0.5592381629540422</v>
-      </c>
-      <c r="P6">
-        <v>0.6544083673880958</v>
-      </c>
-      <c r="Q6">
-        <v>0.6544083673880958</v>
-      </c>
-      <c r="R6">
-        <v>0.6544083673880958</v>
-      </c>
-      <c r="S6">
-        <v>0.7001937145458151</v>
-      </c>
-      <c r="T6">
-        <v>0.7001937145458151</v>
-      </c>
-      <c r="U6">
-        <v>0.7746055065602513</v>
-      </c>
-      <c r="V6">
-        <v>0.8786240723603778</v>
-      </c>
-      <c r="W6">
-        <v>0.8786240723603778</v>
-      </c>
-      <c r="X6">
-        <v>0.8983886814699581</v>
-      </c>
-      <c r="Y6">
-        <v>0.9203439852032805</v>
-      </c>
-      <c r="Z6">
-        <v>0.9754930128410355</v>
-      </c>
-      <c r="AA6">
-        <v>0.986348602048855</v>
-      </c>
-      <c r="AB6">
-        <v>0.986348602048855</v>
-      </c>
-      <c r="AC6">
-        <v>0.9914767222080709</v>
-      </c>
-      <c r="AD6">
-        <v>1</v>
-      </c>
-      <c r="AE6">
-        <v>1</v>
-      </c>
-      <c r="AF6">
-        <v>1</v>
-      </c>
-      <c r="AG6">
-        <v>1</v>
-      </c>
-      <c r="AH6">
-        <v>1</v>
-      </c>
-      <c r="AI6">
-        <v>1</v>
-      </c>
-      <c r="AJ6">
-        <v>1</v>
-      </c>
-      <c r="AK6">
-        <v>1</v>
-      </c>
-      <c r="AL6">
-        <v>1</v>
-      </c>
-      <c r="AM6">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2018,66 +1862,66 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5079162604477173</v>
+        <v>0.5710851944743819</v>
       </c>
       <c r="G2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H2">
         <v>35</v>
@@ -2086,39 +1930,39 @@
         <v>700</v>
       </c>
       <c r="J2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="M2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B3">
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5682943684671112</v>
+        <v>0.5025883907545399</v>
       </c>
       <c r="G3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H3">
         <v>35</v>
@@ -2127,39 +1971,39 @@
         <v>700</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="M3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5184388387725241</v>
+        <v>0.5134219251884725</v>
       </c>
       <c r="G4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H4">
         <v>35</v>
@@ -2168,39 +2012,39 @@
         <v>700</v>
       </c>
       <c r="J4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="M4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B5">
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.6074119023016965</v>
+        <v>0.5067250142057647</v>
       </c>
       <c r="G5">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="H5">
         <v>35</v>
@@ -2209,21 +2053,21 @@
         <v>700</v>
       </c>
       <c r="J5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="M5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B6">
         <v>0.5</v>
@@ -2232,16 +2076,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5592381629540422</v>
+        <v>0.52173595163769</v>
       </c>
       <c r="G6">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H6">
         <v>35</v>
@@ -2250,16 +2094,16 @@
         <v>700</v>
       </c>
       <c r="J6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="M6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2277,66 +2121,66 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7140542494137089</v>
+        <v>0.731582805918065</v>
       </c>
       <c r="G2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H2">
         <v>35</v>
@@ -2345,39 +2189,39 @@
         <v>700</v>
       </c>
       <c r="J2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="M2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B3">
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7639562182148162</v>
+        <v>0.8216526183450943</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H3">
         <v>35</v>
@@ -2386,36 +2230,36 @@
         <v>700</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="M3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8666044545681985</v>
+        <v>0.757695681904305</v>
       </c>
       <c r="G4">
         <v>15</v>
@@ -2427,39 +2271,39 @@
         <v>700</v>
       </c>
       <c r="J4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="M4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B5">
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7491171269415423</v>
+        <v>0.7225978110808098</v>
       </c>
       <c r="G5">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H5">
         <v>35</v>
@@ -2468,21 +2312,21 @@
         <v>700</v>
       </c>
       <c r="J5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="M5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B6">
         <v>0.7</v>
@@ -2491,16 +2335,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7001937145458151</v>
+        <v>0.7086655158046584</v>
       </c>
       <c r="G6">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H6">
         <v>35</v>
@@ -2509,16 +2353,16 @@
         <v>700</v>
       </c>
       <c r="J6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="M6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2536,66 +2380,66 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8974630939967739</v>
+        <v>0.901265374058707</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H2">
         <v>35</v>
@@ -2604,39 +2448,39 @@
         <v>700</v>
       </c>
       <c r="J2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="M2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B3">
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8380901435208061</v>
+        <v>0.8216526183450943</v>
       </c>
       <c r="G3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H3">
         <v>35</v>
@@ -2645,39 +2489,39 @@
         <v>700</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="M3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8666044545681985</v>
+        <v>0.9258985969192259</v>
       </c>
       <c r="G4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H4">
         <v>35</v>
@@ -2686,39 +2530,39 @@
         <v>700</v>
       </c>
       <c r="J4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="M4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B5">
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8328842576838923</v>
+        <v>0.8869004277329702</v>
       </c>
       <c r="G5">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H5">
         <v>35</v>
@@ -2727,21 +2571,21 @@
         <v>700</v>
       </c>
       <c r="J5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="M5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B6">
         <v>0.8</v>
@@ -2750,16 +2594,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8786240723603778</v>
+        <v>0.8627011919736984</v>
       </c>
       <c r="G6">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H6">
         <v>35</v>
@@ -2768,16 +2612,16 @@
         <v>700</v>
       </c>
       <c r="J6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="M6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2795,66 +2639,66 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9153670274163914</v>
+        <v>0.901265374058707</v>
       </c>
       <c r="G2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H2">
         <v>35</v>
@@ -2863,39 +2707,39 @@
         <v>700</v>
       </c>
       <c r="J2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="M2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B3">
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9172392419798008</v>
+        <v>0.9417143497683428</v>
       </c>
       <c r="G3">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H3">
         <v>35</v>
@@ -2904,39 +2748,39 @@
         <v>700</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="M3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9145446580750919</v>
+        <v>0.9258985969192259</v>
       </c>
       <c r="G4">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H4">
         <v>35</v>
@@ -2945,39 +2789,39 @@
         <v>700</v>
       </c>
       <c r="J4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="M4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B5">
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9047919848051216</v>
+        <v>0.9253120908639019</v>
       </c>
       <c r="G5">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H5">
         <v>35</v>
@@ -2986,21 +2830,21 @@
         <v>700</v>
       </c>
       <c r="J5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="M5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B6">
         <v>0.9</v>
@@ -3009,16 +2853,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9203439852032805</v>
+        <v>0.9159317466776448</v>
       </c>
       <c r="G6">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H6">
         <v>35</v>
@@ -3027,16 +2871,16 @@
         <v>700</v>
       </c>
       <c r="J6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="M6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
